--- a/Employee_Reports35/Kennedy Gichuhi Ngaruiya Q0510.xlsx
+++ b/Employee_Reports35/Kennedy Gichuhi Ngaruiya Q0510.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="73" customWidth="1" min="2" max="2"/>
+    <col width="55" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1001,11 +1001,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1050,11 +1050,11 @@
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1065,54 +1065,53 @@
       <c r="K13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Equipment Operation Procedure
-(SOP-031) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-031</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>13-Oct-2024</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>13-Oct-2025</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>-21</v>
-      </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K14" s="4" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>14-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>14-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>252</v>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1120,17 +1119,17 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>CARGO</t>
+          <t>IMS</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-028</t>
+          <t>LSME-IMS-SOP-018</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1140,20 +1139,20 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>12-Jul-2025</t>
+          <t>09-Apr-2025</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>12-Jul-2026</t>
+          <t>09-Apr-2026</t>
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1169,40 +1168,28 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>14-Jul-2025</t>
+          <t>10-Apr-2025</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>14-Jul-2026</t>
+          <t>10-Apr-2026</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1218,17 +1205,17 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>IMS</t>
+          <t>CARGO</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>LSME-IMS-SOP-018</t>
+          <t>LSME-CRG-SOP-001</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1238,20 +1225,20 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>09-Apr-2025</t>
+          <t>24-Jul-2025</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>09-Apr-2026</t>
+          <t>24-Jul-2026</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1267,7 +1254,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -1275,20 +1262,20 @@
       <c r="E18" s="3" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>10-Apr-2025</t>
+          <t>30-Sep-2025</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>10-Apr-2026</t>
+          <t>30-Sep-2026</t>
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>158</v>
+        <v>330</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1304,40 +1291,28 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-003</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2025</t>
+          <t>05-Jul-2025</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2026</t>
+          <t>05-Jul-2027</t>
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>264</v>
+        <v>608</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1346,374 +1321,6 @@
         </is>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Weight Scale Verification Procedure(LSME-IMS-SOP-023 ) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-023</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>18-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>18-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>257</v>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-009</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>25-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>25-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>264</v>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-010</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>26-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>26-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>265</v>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-001</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>24-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>24-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>263</v>
-      </c>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>30-Sep-2025</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>30-Sep-2026</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="n">
-        <v>331</v>
-      </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-011</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>15-Aug-2025</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>15-Aug-2026</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>285</v>
-      </c>
-      <c r="I25" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-018</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>15-Aug-2025</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>15-Aug-2026</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>285</v>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>05-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>05-Jul-2027</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="n">
-        <v>609</v>
-      </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K27" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Kennedy Gichuhi Ngaruiya Q0510.xlsx
+++ b/Employee_Reports35/Kennedy Gichuhi Ngaruiya Q0510.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1001,11 +1001,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1050,11 +1050,11 @@
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1099,11 +1099,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1185,11 +1185,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1234,11 +1234,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1271,11 +1271,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
